--- a/update_data/data/bank_psbc/interaction/interaction.xlsx
+++ b/update_data/data/bank_psbc/interaction/interaction.xlsx
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,7 +442,7 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="38.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
@@ -451,7 +451,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="38.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
